--- a/tables/xls/it/81_Mezzi preaccreditati.xlsx
+++ b/tables/xls/it/81_Mezzi preaccreditati.xlsx
@@ -156,7 +156,7 @@
     <t>MEZZI PREACCREDITATI</t>
   </si>
   <si>
-    <t>Mezzi Preaccreditati</t>
+    <t>Mezzi preaccreditati</t>
   </si>
   <si>
     <t>Crescente</t>
@@ -737,10 +737,10 @@
         <v>37</v>
       </c>
       <c r="K4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="M4" t="s">
         <v>37</v>
